--- a/excel/0209东京京都小仓第二名.xlsx
+++ b/excel/0209东京京都小仓第二名.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7117293</v>
+        <v>7154026</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -486,23 +486,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Feiern Kranz</t>
+          <t>Ethelfleda</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>41801118</v>
+        <v>39388701</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Feiern Kranz</t>
+          <t>Ethelfleda</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -511,7 +511,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7117300</v>
+        <v>7154028</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -520,23 +520,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bond Girl</t>
+          <t>Ma Puce</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>39235716</v>
+        <v>42164582</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bond Girl</t>
+          <t>Ma Puce</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -545,7 +545,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7117310</v>
+        <v>7153979</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -554,23 +554,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fusetsu</t>
+          <t>Said</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>42468234</v>
+        <v>35867859</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fusetsu</t>
+          <t>Said</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -579,7 +579,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7117314</v>
+        <v>7153981</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -588,26 +588,162 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jaguar</t>
+          <t>Emanuele</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>39561349</v>
+        <v>37847467</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Jaguar</t>
+          <t>Emanuele</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>7161706</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>日本 -- Tokyo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Omega Wink</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>39546201</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Omega Wink</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7161712</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>日本 -- Tokyo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Kalamatianos</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>41801102</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Kalamatianos</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7161710</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>日本 -- Kyoto</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Libyan Glass</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>38926253</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Libyan Glass</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>12314435</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7161713</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>日本 -- Kyoto</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Britannia</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>38322911</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Britannia</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>12314435</v>
       </c>
     </row>
